--- a/ProjectDocs/EstimationGpsTracker.xlsx
+++ b/ProjectDocs/EstimationGpsTracker.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quality\CMM\2017\Compucom Tracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="5580"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="5580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="extra" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>Functional Areas:</t>
   </si>
@@ -195,25 +199,7 @@
     <t>Estimation Assumptions</t>
   </si>
   <si>
-    <t xml:space="preserve"> &gt; University, Institute, Type, Stream, Branch, Course, Year, Semester, Section, Exam, Qualification Exam  - Addition, Update, Deletion, Browse</t>
-  </si>
-  <si>
-    <t>&gt;Institute/Course Admission Criteria</t>
-  </si>
-  <si>
-    <t>&gt;Festival Master</t>
-  </si>
-  <si>
-    <t>&gt;Institute, Branch, Exam,etc  Comparison</t>
-  </si>
-  <si>
     <t>Man heads Required</t>
-  </si>
-  <si>
-    <t>(Days)</t>
-  </si>
-  <si>
-    <t>System Analyst cum Architect</t>
   </si>
   <si>
     <r>
@@ -300,27 +286,6 @@
     <t>Tester &amp; Desinger</t>
   </si>
   <si>
-    <t>Master Data Management</t>
-  </si>
-  <si>
-    <t>3.a</t>
-  </si>
-  <si>
-    <t>&gt;Mapping of  University, Master Type, Stream, Branch, Course, Year, Semester, Section, Exam, Qualification Exam</t>
-  </si>
-  <si>
-    <t>3.b</t>
-  </si>
-  <si>
-    <t>Affiliation Data Management</t>
-  </si>
-  <si>
-    <t>3.c</t>
-  </si>
-  <si>
-    <t>Mapping Task Management</t>
-  </si>
-  <si>
     <t>Annexure1: Project Estimation COMPUCOM TRACKER</t>
   </si>
   <si>
@@ -412,13 +377,19 @@
   </si>
   <si>
     <t>&lt;4</t>
+  </si>
+  <si>
+    <t>(working Days)</t>
+  </si>
+  <si>
+    <t>System Analyst cum Architect / Developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -825,9 +796,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -877,9 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -898,23 +863,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -935,39 +933,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -979,6 +944,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1025,7 +998,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1057,9 +1030,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1091,6 +1065,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1266,14 +1241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1284,31 +1259,31 @@
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="24" thickBot="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1319,7 +1294,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1330,11 +1305,11 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A5" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="60"/>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="67"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -1343,7 +1318,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="30">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>1</v>
       </c>
@@ -1359,19 +1334,19 @@
       <c r="E6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="28" t="s">
         <v>36</v>
       </c>
@@ -1383,27 +1358,27 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C9" s="32">
         <v>5</v>
@@ -1426,22 +1401,22 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>1.2</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C10" s="32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" s="32">
         <v>1</v>
       </c>
       <c r="E10" s="32">
         <f t="shared" ref="E10:E59" si="0">C10*D10</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10" s="32">
         <v>1</v>
@@ -1454,12 +1429,12 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>1.3</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C11" s="32">
         <v>1</v>
@@ -1482,12 +1457,12 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>1.4</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C12" s="32">
         <v>10</v>
@@ -1510,7 +1485,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
@@ -1521,42 +1496,42 @@
       <c r="H13" s="32"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>2</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="B14" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="30">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>2.1</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+        <v>91</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>2.2000000000000002</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -1566,858 +1541,858 @@
       <c r="H16" s="32"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>3</v>
       </c>
-      <c r="B18" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
+      <c r="B18" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>3.1</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+        <v>93</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>4</v>
       </c>
-      <c r="B21" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="B21" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>4.0999999999999996</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="54">
-        <v>2</v>
-      </c>
-      <c r="D22" s="54">
+        <v>75</v>
+      </c>
+      <c r="C22" s="52">
+        <v>2</v>
+      </c>
+      <c r="D22" s="52">
         <v>10</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="52">
         <v>20</v>
       </c>
-      <c r="F22" s="54">
-        <v>2</v>
-      </c>
-      <c r="G22" s="54">
-        <v>2</v>
-      </c>
-      <c r="H22" s="54">
+      <c r="F22" s="52">
+        <v>2</v>
+      </c>
+      <c r="G22" s="52">
+        <v>2</v>
+      </c>
+      <c r="H22" s="52">
         <v>6</v>
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>4.2</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="54">
-        <v>1</v>
-      </c>
-      <c r="D23" s="54">
-        <v>2</v>
-      </c>
-      <c r="E23" s="54">
-        <v>2</v>
-      </c>
-      <c r="F23" s="54">
-        <v>1</v>
-      </c>
-      <c r="G23" s="54">
-        <v>1</v>
-      </c>
-      <c r="H23" s="54">
+        <v>76</v>
+      </c>
+      <c r="C23" s="52">
+        <v>1</v>
+      </c>
+      <c r="D23" s="52">
+        <v>2</v>
+      </c>
+      <c r="E23" s="52">
+        <v>2</v>
+      </c>
+      <c r="F23" s="52">
+        <v>1</v>
+      </c>
+      <c r="G23" s="52">
+        <v>1</v>
+      </c>
+      <c r="H23" s="52">
         <v>2</v>
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>4.3</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="54">
-        <v>1</v>
-      </c>
-      <c r="D24" s="54">
+        <v>77</v>
+      </c>
+      <c r="C24" s="52">
+        <v>1</v>
+      </c>
+      <c r="D24" s="52">
         <v>5</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="52">
         <v>5</v>
       </c>
-      <c r="F24" s="54">
-        <v>0</v>
-      </c>
-      <c r="G24" s="54">
-        <v>1</v>
-      </c>
-      <c r="H24" s="54">
+      <c r="F24" s="52">
+        <v>0</v>
+      </c>
+      <c r="G24" s="52">
+        <v>1</v>
+      </c>
+      <c r="H24" s="52">
         <v>4</v>
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>4.4000000000000004</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="54">
-        <v>1</v>
-      </c>
-      <c r="D25" s="54">
+        <v>78</v>
+      </c>
+      <c r="C25" s="52">
+        <v>1</v>
+      </c>
+      <c r="D25" s="52">
         <v>3</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="52">
         <v>3</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>5</v>
       </c>
-      <c r="B27" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="B27" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>5.0999999999999996</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="54">
-        <v>1</v>
-      </c>
-      <c r="D28" s="54">
+        <v>75</v>
+      </c>
+      <c r="C28" s="52">
+        <v>1</v>
+      </c>
+      <c r="D28" s="52">
         <v>3</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="52">
         <v>3</v>
       </c>
-      <c r="F28" s="54">
-        <v>0</v>
-      </c>
-      <c r="G28" s="54">
-        <v>2</v>
-      </c>
-      <c r="H28" s="54">
+      <c r="F28" s="52">
+        <v>0</v>
+      </c>
+      <c r="G28" s="52">
+        <v>2</v>
+      </c>
+      <c r="H28" s="52">
         <v>1</v>
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>5.2</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="54">
-        <v>2</v>
-      </c>
-      <c r="D29" s="54">
-        <v>1</v>
-      </c>
-      <c r="E29" s="54">
-        <v>2</v>
-      </c>
-      <c r="F29" s="54">
-        <v>0</v>
-      </c>
-      <c r="G29" s="54">
-        <v>1</v>
-      </c>
-      <c r="H29" s="54">
+        <v>76</v>
+      </c>
+      <c r="C29" s="52">
+        <v>2</v>
+      </c>
+      <c r="D29" s="52">
+        <v>1</v>
+      </c>
+      <c r="E29" s="52">
+        <v>2</v>
+      </c>
+      <c r="F29" s="52">
+        <v>0</v>
+      </c>
+      <c r="G29" s="52">
+        <v>1</v>
+      </c>
+      <c r="H29" s="52">
         <v>1</v>
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>5.3</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="54">
-        <v>1</v>
-      </c>
-      <c r="D30" s="54">
-        <v>1</v>
-      </c>
-      <c r="E30" s="54">
-        <v>1</v>
-      </c>
-      <c r="F30" s="54">
-        <v>1</v>
-      </c>
-      <c r="G30" s="54">
-        <v>0</v>
-      </c>
-      <c r="H30" s="54">
+        <v>81</v>
+      </c>
+      <c r="C30" s="52">
+        <v>1</v>
+      </c>
+      <c r="D30" s="52">
+        <v>1</v>
+      </c>
+      <c r="E30" s="52">
+        <v>1</v>
+      </c>
+      <c r="F30" s="52">
+        <v>1</v>
+      </c>
+      <c r="G30" s="52">
+        <v>0</v>
+      </c>
+      <c r="H30" s="52">
         <v>0</v>
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75">
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
         <v>6</v>
       </c>
-      <c r="B32" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="B32" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>6.1</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="54">
-        <v>1</v>
-      </c>
-      <c r="D33" s="54">
+        <v>75</v>
+      </c>
+      <c r="C33" s="52">
+        <v>1</v>
+      </c>
+      <c r="D33" s="52">
         <v>3</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="52">
         <v>3</v>
       </c>
-      <c r="F33" s="54">
-        <v>1</v>
-      </c>
-      <c r="G33" s="54">
-        <v>2</v>
-      </c>
-      <c r="H33" s="54">
+      <c r="F33" s="52">
+        <v>1</v>
+      </c>
+      <c r="G33" s="52">
+        <v>2</v>
+      </c>
+      <c r="H33" s="52">
         <v>0</v>
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>6.2</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="54">
+        <v>76</v>
+      </c>
+      <c r="C34" s="52">
         <v>3</v>
       </c>
-      <c r="D34" s="54">
+      <c r="D34" s="52">
         <v>3</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="52">
         <v>9</v>
       </c>
-      <c r="F34" s="54">
-        <v>2</v>
-      </c>
-      <c r="G34" s="54">
-        <v>2</v>
-      </c>
-      <c r="H34" s="54">
+      <c r="F34" s="52">
+        <v>2</v>
+      </c>
+      <c r="G34" s="52">
+        <v>2</v>
+      </c>
+      <c r="H34" s="52">
         <v>5</v>
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>6.3</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="54">
-        <v>1</v>
-      </c>
-      <c r="D35" s="54">
+        <v>82</v>
+      </c>
+      <c r="C35" s="52">
+        <v>1</v>
+      </c>
+      <c r="D35" s="52">
         <v>3</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="52">
         <v>3</v>
       </c>
-      <c r="F35" s="54">
-        <v>0</v>
-      </c>
-      <c r="G35" s="54">
+      <c r="F35" s="52">
+        <v>0</v>
+      </c>
+      <c r="G35" s="52">
         <v>3</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="52">
         <v>0</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="18.75">
+    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
         <v>7</v>
       </c>
-      <c r="B37" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
+      <c r="B37" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>7.1</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="54">
-        <v>2</v>
-      </c>
-      <c r="D38" s="54">
+        <v>75</v>
+      </c>
+      <c r="C38" s="52">
+        <v>2</v>
+      </c>
+      <c r="D38" s="52">
         <v>4</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="52">
         <v>8</v>
       </c>
-      <c r="F38" s="54">
-        <v>2</v>
-      </c>
-      <c r="G38" s="54">
-        <v>2</v>
-      </c>
-      <c r="H38" s="54">
+      <c r="F38" s="52">
+        <v>2</v>
+      </c>
+      <c r="G38" s="52">
+        <v>2</v>
+      </c>
+      <c r="H38" s="52">
         <v>4</v>
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>7.2</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="54">
+        <v>76</v>
+      </c>
+      <c r="C39" s="52">
         <v>4</v>
       </c>
-      <c r="D39" s="54">
-        <v>1</v>
-      </c>
-      <c r="E39" s="54">
+      <c r="D39" s="52">
+        <v>1</v>
+      </c>
+      <c r="E39" s="52">
         <v>4</v>
       </c>
-      <c r="F39" s="54">
-        <v>0</v>
-      </c>
-      <c r="G39" s="54">
-        <v>0</v>
-      </c>
-      <c r="H39" s="54">
+      <c r="F39" s="52">
+        <v>0</v>
+      </c>
+      <c r="G39" s="52">
+        <v>0</v>
+      </c>
+      <c r="H39" s="52">
         <v>4</v>
       </c>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>7.3</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="54">
-        <v>1</v>
-      </c>
-      <c r="D40" s="54">
-        <v>1</v>
-      </c>
-      <c r="E40" s="54">
-        <v>1</v>
-      </c>
-      <c r="F40" s="54">
-        <v>0</v>
-      </c>
-      <c r="G40" s="54">
-        <v>1</v>
-      </c>
-      <c r="H40" s="54">
+        <v>84</v>
+      </c>
+      <c r="C40" s="52">
+        <v>1</v>
+      </c>
+      <c r="D40" s="52">
+        <v>1</v>
+      </c>
+      <c r="E40" s="52">
+        <v>1</v>
+      </c>
+      <c r="F40" s="52">
+        <v>0</v>
+      </c>
+      <c r="G40" s="52">
+        <v>1</v>
+      </c>
+      <c r="H40" s="52">
         <v>0</v>
       </c>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>7.4</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="54">
-        <v>2</v>
-      </c>
-      <c r="D41" s="54">
-        <v>1</v>
-      </c>
-      <c r="E41" s="54">
-        <v>2</v>
-      </c>
-      <c r="F41" s="54">
-        <v>0</v>
-      </c>
-      <c r="G41" s="54">
-        <v>2</v>
-      </c>
-      <c r="H41" s="54">
+        <v>83</v>
+      </c>
+      <c r="C41" s="52">
+        <v>2</v>
+      </c>
+      <c r="D41" s="52">
+        <v>1</v>
+      </c>
+      <c r="E41" s="52">
+        <v>2</v>
+      </c>
+      <c r="F41" s="52">
+        <v>0</v>
+      </c>
+      <c r="G41" s="52">
+        <v>2</v>
+      </c>
+      <c r="H41" s="52">
         <v>0</v>
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" ht="18.75">
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
         <v>8</v>
       </c>
-      <c r="B43" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="64"/>
+      <c r="B43" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="66"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>8.1</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="54">
+        <v>75</v>
+      </c>
+      <c r="C44" s="52">
         <v>3</v>
       </c>
-      <c r="D44" s="54">
-        <v>2</v>
-      </c>
-      <c r="E44" s="54">
+      <c r="D44" s="52">
+        <v>2</v>
+      </c>
+      <c r="E44" s="52">
         <v>6</v>
       </c>
-      <c r="F44" s="54">
-        <v>0</v>
-      </c>
-      <c r="G44" s="54">
-        <v>2</v>
-      </c>
-      <c r="H44" s="54">
+      <c r="F44" s="52">
+        <v>0</v>
+      </c>
+      <c r="G44" s="52">
+        <v>2</v>
+      </c>
+      <c r="H44" s="52">
         <v>4</v>
       </c>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>8.1999999999999993</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="54">
-        <v>1</v>
-      </c>
-      <c r="D45" s="54">
-        <v>1</v>
-      </c>
-      <c r="E45" s="54">
-        <v>1</v>
-      </c>
-      <c r="F45" s="54">
-        <v>0</v>
-      </c>
-      <c r="G45" s="54">
-        <v>0</v>
-      </c>
-      <c r="H45" s="54">
+        <v>76</v>
+      </c>
+      <c r="C45" s="52">
+        <v>1</v>
+      </c>
+      <c r="D45" s="52">
+        <v>1</v>
+      </c>
+      <c r="E45" s="52">
+        <v>1</v>
+      </c>
+      <c r="F45" s="52">
+        <v>0</v>
+      </c>
+      <c r="G45" s="52">
+        <v>0</v>
+      </c>
+      <c r="H45" s="52">
         <v>1</v>
       </c>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>8.3000000000000007</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="54">
-        <v>1</v>
-      </c>
-      <c r="D46" s="54">
-        <v>1</v>
-      </c>
-      <c r="E46" s="54">
-        <v>1</v>
-      </c>
-      <c r="F46" s="54">
-        <v>0</v>
-      </c>
-      <c r="G46" s="54">
-        <v>1</v>
-      </c>
-      <c r="H46" s="54">
+        <v>85</v>
+      </c>
+      <c r="C46" s="52">
+        <v>1</v>
+      </c>
+      <c r="D46" s="52">
+        <v>1</v>
+      </c>
+      <c r="E46" s="52">
+        <v>1</v>
+      </c>
+      <c r="F46" s="52">
+        <v>0</v>
+      </c>
+      <c r="G46" s="52">
+        <v>1</v>
+      </c>
+      <c r="H46" s="52">
         <v>0</v>
       </c>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="31"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:9" ht="18.75">
+    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
         <v>9</v>
       </c>
-      <c r="B48" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
+      <c r="B48" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>9.1</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="54">
+        <v>75</v>
+      </c>
+      <c r="C49" s="52">
         <v>3</v>
       </c>
-      <c r="D49" s="54">
-        <v>2</v>
-      </c>
-      <c r="E49" s="54">
+      <c r="D49" s="52">
+        <v>2</v>
+      </c>
+      <c r="E49" s="52">
         <v>6</v>
       </c>
-      <c r="F49" s="54">
-        <v>0</v>
-      </c>
-      <c r="G49" s="54">
-        <v>2</v>
-      </c>
-      <c r="H49" s="54">
+      <c r="F49" s="52">
+        <v>0</v>
+      </c>
+      <c r="G49" s="52">
+        <v>2</v>
+      </c>
+      <c r="H49" s="52">
         <v>4</v>
       </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>9.1999999999999993</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="54">
-        <v>1</v>
-      </c>
-      <c r="D50" s="54">
-        <v>1</v>
-      </c>
-      <c r="E50" s="54">
-        <v>1</v>
-      </c>
-      <c r="F50" s="54">
-        <v>0</v>
-      </c>
-      <c r="G50" s="54">
-        <v>0</v>
-      </c>
-      <c r="H50" s="54">
+        <v>76</v>
+      </c>
+      <c r="C50" s="52">
+        <v>1</v>
+      </c>
+      <c r="D50" s="52">
+        <v>1</v>
+      </c>
+      <c r="E50" s="52">
+        <v>1</v>
+      </c>
+      <c r="F50" s="52">
+        <v>0</v>
+      </c>
+      <c r="G50" s="52">
+        <v>0</v>
+      </c>
+      <c r="H50" s="52">
         <v>1</v>
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>9.3000000000000007</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="54">
-        <v>2</v>
-      </c>
-      <c r="D51" s="54">
-        <v>1</v>
-      </c>
-      <c r="E51" s="54">
-        <v>2</v>
-      </c>
-      <c r="F51" s="54">
-        <v>0</v>
-      </c>
-      <c r="G51" s="54">
-        <v>1</v>
-      </c>
-      <c r="H51" s="54">
+        <v>86</v>
+      </c>
+      <c r="C51" s="52">
+        <v>2</v>
+      </c>
+      <c r="D51" s="52">
+        <v>1</v>
+      </c>
+      <c r="E51" s="52">
+        <v>2</v>
+      </c>
+      <c r="F51" s="52">
+        <v>0</v>
+      </c>
+      <c r="G51" s="52">
+        <v>1</v>
+      </c>
+      <c r="H51" s="52">
         <v>1</v>
       </c>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="58"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="56"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" ht="18.75">
+    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>10</v>
       </c>
-      <c r="B53" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="64"/>
+      <c r="B53" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="66"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>10.1</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="54">
+        <v>75</v>
+      </c>
+      <c r="C54" s="52">
+        <v>1</v>
+      </c>
+      <c r="D54" s="52">
+        <v>1</v>
+      </c>
+      <c r="E54" s="52">
+        <v>1</v>
+      </c>
+      <c r="F54" s="52">
+        <v>0</v>
+      </c>
+      <c r="G54" s="52">
+        <v>1</v>
+      </c>
+      <c r="H54" s="52">
         <v>0</v>
       </c>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>10.199999999999999</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="54">
-        <v>1</v>
-      </c>
-      <c r="D55" s="54">
-        <v>2</v>
-      </c>
-      <c r="E55" s="54">
-        <v>2</v>
-      </c>
-      <c r="F55" s="54">
-        <v>0</v>
-      </c>
-      <c r="G55" s="54">
-        <v>2</v>
-      </c>
-      <c r="H55" s="54">
+        <v>79</v>
+      </c>
+      <c r="C55" s="52">
+        <v>1</v>
+      </c>
+      <c r="D55" s="52">
+        <v>2</v>
+      </c>
+      <c r="E55" s="52">
+        <v>2</v>
+      </c>
+      <c r="F55" s="52">
+        <v>0</v>
+      </c>
+      <c r="G55" s="52">
+        <v>2</v>
+      </c>
+      <c r="H55" s="52">
         <v>0</v>
       </c>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9">
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="31"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="18.75">
+    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
         <v>11</v>
       </c>
-      <c r="B58" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="64"/>
+      <c r="B58" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="66"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>11.1</v>
       </c>
-      <c r="B59" s="34" t="s">
-        <v>88</v>
+      <c r="B59" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="C59" s="32">
         <v>1</v>
@@ -2440,17 +2415,17 @@
       </c>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>11.2</v>
       </c>
-      <c r="B60" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="35">
-        <v>1</v>
-      </c>
-      <c r="D60" s="35">
+      <c r="B60" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="34">
+        <v>1</v>
+      </c>
+      <c r="D60" s="34">
         <v>1</v>
       </c>
       <c r="E60" s="32">
@@ -2467,43 +2442,43 @@
       </c>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9" ht="18.75">
+    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="1:9" s="27" customFormat="1" ht="21">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37" t="s">
+    <row r="62" spans="1:9" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38">
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37">
         <f>SUM(E9:E61)</f>
-        <v>113</v>
-      </c>
-      <c r="F62" s="37">
+        <v>108</v>
+      </c>
+      <c r="F62" s="36">
         <f>SUM(F9:F61)</f>
         <v>19</v>
       </c>
-      <c r="G62" s="37">
+      <c r="G62" s="36">
         <f>SUM(G9:G61)</f>
         <v>36</v>
       </c>
-      <c r="H62" s="37">
+      <c r="H62" s="36">
         <f>SUM(H9:H61)</f>
         <v>41</v>
       </c>
       <c r="I62" s="26"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="F63" s="7"/>
@@ -2511,7 +2486,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="F64" s="7"/>
@@ -2519,23 +2494,23 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A65" s="65" t="s">
+    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="66"/>
-      <c r="C65" s="67"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1">
-      <c r="A66" s="68" t="s">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="69"/>
-      <c r="C66" s="70"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
@@ -2543,7 +2518,7 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" ht="56.25" customHeight="1">
+    <row r="67" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>1</v>
       </c>
@@ -2560,15 +2535,15 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" ht="45">
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="32">
         <v>1</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C68" s="32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -2577,15 +2552,15 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" s="2" customFormat="1" ht="45">
+    <row r="69" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="32">
         <v>2</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C69" s="32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -2594,15 +2569,15 @@
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
     </row>
-    <row r="70" spans="1:9" ht="45" customHeight="1">
+    <row r="70" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>3</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C70" s="32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -2611,7 +2586,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" ht="55.5" customHeight="1">
+    <row r="71" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="D71" s="7"/>
@@ -2621,20 +2596,20 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="1:9" ht="45.75" customHeight="1">
-      <c r="A72" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
+    <row r="72" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -2645,7 +2620,7 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" ht="30">
+    <row r="74" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
         <v>1</v>
       </c>
@@ -2666,7 +2641,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="32">
         <v>1</v>
       </c>
@@ -2677,6 +2652,7 @@
         <v>100</v>
       </c>
       <c r="D75" s="32">
+        <f>C70</f>
         <v>7</v>
       </c>
       <c r="E75" s="32">
@@ -2688,7 +2664,7 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" spans="1:9" s="2" customFormat="1">
+    <row r="76" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32">
         <v>2</v>
       </c>
@@ -2699,6 +2675,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="32">
+        <f>C69</f>
         <v>4</v>
       </c>
       <c r="E76" s="32">
@@ -2710,7 +2687,7 @@
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="32">
         <v>3</v>
       </c>
@@ -2721,18 +2698,19 @@
         <v>38</v>
       </c>
       <c r="D77" s="32">
-        <v>3</v>
+        <f>C68</f>
+        <v>2</v>
       </c>
       <c r="E77" s="32">
         <f>C77*D77</f>
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
@@ -2743,26 +2721,26 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="1:9" s="25" customFormat="1">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39" t="s">
+    <row r="79" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="38">
         <f>SUM(C75:C77)</f>
         <v>213</v>
       </c>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39">
+      <c r="D79" s="38"/>
+      <c r="E79" s="38">
         <f>SUM(E75:E77)</f>
-        <v>1114</v>
+        <v>1076</v>
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="F80" s="7"/>
@@ -2770,7 +2748,7 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="F81" s="7"/>
@@ -2778,53 +2756,53 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="1:9" s="25" customFormat="1">
+    <row r="82" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="41">
         <v>210</v>
       </c>
-      <c r="D82" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E82" s="43"/>
+      <c r="D82" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="42"/>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="45"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="1:9" ht="45">
+    <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
-      <c r="B84" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D84" s="48"/>
-      <c r="E84" s="49">
+      <c r="B84" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="47"/>
+      <c r="E84" s="48">
         <f>E79/C82</f>
-        <v>5.3047619047619046</v>
+        <v>5.1238095238095234</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -2835,7 +2813,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -2846,27 +2824,27 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A88" s="60" t="s">
+    <row r="88" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="60"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-    </row>
-    <row r="89" spans="1:9" ht="30">
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+    </row>
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
         <v>1</v>
       </c>
@@ -2895,7 +2873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="5" customFormat="1" ht="23.25" customHeight="1">
+    <row r="90" spans="1:9" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="32">
         <v>1</v>
       </c>
@@ -2920,46 +2898,46 @@
         <v>1680</v>
       </c>
       <c r="H90" s="32">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I90" s="32">
         <f>G90*H90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="2" customFormat="1">
+        <v>1008000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="32">
         <v>2</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C91" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" s="32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E91" s="32">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="F91" s="32">
         <f>D91*E91</f>
-        <v>750</v>
+        <v>1680</v>
       </c>
       <c r="G91" s="32">
         <f>C91*F91</f>
-        <v>1500</v>
+        <v>1680</v>
       </c>
       <c r="H91" s="32">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I91" s="32">
         <f>G91*H91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="32">
         <v>4</v>
       </c>
@@ -2967,82 +2945,82 @@
         <v>17</v>
       </c>
       <c r="C92" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" s="32">
         <v>8</v>
       </c>
       <c r="E92" s="32">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F92" s="32">
         <f>D92*E92</f>
-        <v>1520</v>
+        <v>1680</v>
       </c>
       <c r="G92" s="32">
         <f>C92*F92</f>
-        <v>4560</v>
+        <v>3360</v>
       </c>
       <c r="H92" s="32">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="I92" s="32">
         <f>G92*H92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>1176000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="32">
         <v>5</v>
       </c>
-      <c r="B93" s="51" t="s">
-        <v>71</v>
+      <c r="B93" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="C93" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" s="32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E93" s="32">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F93" s="32">
         <f>D93*E93</f>
-        <v>600</v>
+        <v>1680</v>
       </c>
       <c r="G93" s="32">
         <f>C93*F93</f>
-        <v>1200</v>
+        <v>1680</v>
       </c>
       <c r="H93" s="32">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I93" s="32">
         <f>G93*H93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40" t="s">
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40">
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39">
         <f>SUM(G90:G93)</f>
-        <v>8940</v>
-      </c>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40">
+        <v>8400</v>
+      </c>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39">
         <f>SUM(I90:I93)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>3528000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -3053,7 +3031,7 @@
       <c r="H95" s="32"/>
       <c r="I95" s="32"/>
     </row>
-    <row r="96" spans="1:9" s="1" customFormat="1" ht="45">
+    <row r="96" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
       <c r="B96" s="32" t="s">
         <v>31</v>
@@ -3066,34 +3044,34 @@
       <c r="H96" s="32"/>
       <c r="I96" s="32">
         <f>0.1*I94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="61"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="61"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50" t="s">
+        <v>352800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="73"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="73"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="73"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="73"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="73"/>
+      <c r="I98" s="73"/>
+    </row>
+    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49" t="s">
         <v>27</v>
       </c>
       <c r="C99" s="32"/>
@@ -3102,12 +3080,12 @@
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
       <c r="H99" s="32"/>
-      <c r="I99" s="50">
+      <c r="I99" s="49">
         <f>SUM(I94:I96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>3880800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3118,7 +3096,7 @@
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
     </row>
-    <row r="101" spans="1:9" s="14" customFormat="1" ht="18.75">
+    <row r="101" spans="1:9" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="13"/>
@@ -3128,7 +3106,7 @@
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3139,7 +3117,7 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3150,7 +3128,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3161,7 +3139,7 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -3170,7 +3148,7 @@
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -3181,6 +3159,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A97:I98"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A88:I88"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B14:H14"/>
@@ -3190,17 +3175,10 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B43:H43"/>
-    <mergeCell ref="A97:I98"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A72:E72"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B18:H18"/>
-    <mergeCell ref="A88:I88"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3209,14 +3187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="15" customWidth="1"/>
@@ -3232,14 +3210,14 @@
     <col min="12" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="21">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="22"/>
       <c r="I1" s="22"/>
     </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" ht="47.25">
+    <row r="3" spans="1:11" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>34</v>
       </c>
@@ -3249,19 +3227,19 @@
       <c r="D3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-    </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" ht="45">
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+    </row>
+    <row r="4" spans="1:11" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
       <c r="E4" s="20" t="s">
         <v>41</v>
@@ -3285,7 +3263,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="72" customHeight="1">
+    <row r="5" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -3293,7 +3271,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>44</v>
@@ -3308,7 +3286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="75">
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -3316,7 +3294,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>45</v>
@@ -3331,7 +3309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="60">
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -3339,7 +3317,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>46</v>
@@ -3354,12 +3332,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>40</v>
       </c>
@@ -3373,550 +3351,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:IV27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="45">
-      <c r="A1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="79" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="105">
-      <c r="A3" s="30">
-        <v>3.1</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="52">
-        <v>11</v>
-      </c>
-      <c r="D3" s="52">
-        <v>4</v>
-      </c>
-      <c r="E3" s="52">
-        <f t="shared" ref="E3:E7" si="0">C3*D3</f>
-        <v>44</v>
-      </c>
-      <c r="F3" s="52">
-        <v>22</v>
-      </c>
-      <c r="G3" s="52">
-        <v>11</v>
-      </c>
-      <c r="H3" s="52">
-        <v>11</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="75">
-      <c r="A4" s="30">
-        <v>3.2</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="52">
-        <v>3</v>
-      </c>
-      <c r="D4" s="52">
-        <v>1</v>
-      </c>
-      <c r="E4" s="52">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F4" s="52">
-        <v>1</v>
-      </c>
-      <c r="G4" s="52">
-        <v>2</v>
-      </c>
-      <c r="H4" s="52">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="52">
-        <v>4</v>
-      </c>
-      <c r="D5" s="52">
-        <v>1</v>
-      </c>
-      <c r="E5" s="52">
-        <f>C5*D5</f>
-        <v>4</v>
-      </c>
-      <c r="F5" s="52">
-        <v>2</v>
-      </c>
-      <c r="G5" s="52">
-        <v>1</v>
-      </c>
-      <c r="H5" s="52">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="30">
-        <v>3.4</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="52">
-        <v>3</v>
-      </c>
-      <c r="D6" s="52">
-        <v>1</v>
-      </c>
-      <c r="E6" s="52">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F6" s="52">
-        <v>2</v>
-      </c>
-      <c r="G6" s="52">
-        <v>1</v>
-      </c>
-      <c r="H6" s="52">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="52">
-        <v>2</v>
-      </c>
-      <c r="D7" s="52">
-        <v>1</v>
-      </c>
-      <c r="E7" s="52">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F7" s="52">
-        <v>2</v>
-      </c>
-      <c r="G7" s="52">
-        <v>0</v>
-      </c>
-      <c r="H7" s="52">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75">
-      <c r="A10" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="105">
-      <c r="A11" s="30">
-        <v>3.1</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="52">
-        <v>11</v>
-      </c>
-      <c r="D11" s="52">
-        <v>4</v>
-      </c>
-      <c r="E11" s="52">
-        <f>C11*D11</f>
-        <v>44</v>
-      </c>
-      <c r="F11" s="52">
-        <v>22</v>
-      </c>
-      <c r="G11" s="52">
-        <v>11</v>
-      </c>
-      <c r="H11" s="52">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="75">
-      <c r="A12" s="30">
-        <v>3.2</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="52">
-        <v>3</v>
-      </c>
-      <c r="D12" s="52">
-        <v>1</v>
-      </c>
-      <c r="E12" s="52">
-        <f>C12*D12</f>
-        <v>3</v>
-      </c>
-      <c r="F12" s="52">
-        <v>1</v>
-      </c>
-      <c r="G12" s="52">
-        <v>2</v>
-      </c>
-      <c r="H12" s="52">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="52">
-        <v>4</v>
-      </c>
-      <c r="D13" s="52">
-        <v>1</v>
-      </c>
-      <c r="E13" s="52">
-        <f>C13*D13</f>
-        <v>4</v>
-      </c>
-      <c r="F13" s="52">
-        <v>2</v>
-      </c>
-      <c r="G13" s="52">
-        <v>1</v>
-      </c>
-      <c r="H13" s="52">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="30">
-        <v>3.4</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="52">
-        <v>3</v>
-      </c>
-      <c r="D14" s="52">
-        <v>1</v>
-      </c>
-      <c r="E14" s="52">
-        <f>C14*D14</f>
-        <v>3</v>
-      </c>
-      <c r="F14" s="52">
-        <v>2</v>
-      </c>
-      <c r="G14" s="52">
-        <v>1</v>
-      </c>
-      <c r="H14" s="52">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="52">
-        <v>2</v>
-      </c>
-      <c r="D15" s="52">
-        <v>1</v>
-      </c>
-      <c r="E15" s="52">
-        <f>C15*D15</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="52">
-        <v>2</v>
-      </c>
-      <c r="G15" s="52">
-        <v>0</v>
-      </c>
-      <c r="H15" s="52">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75">
-      <c r="A18" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="105">
-      <c r="A19" s="30">
-        <v>3.1</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="52">
-        <v>11</v>
-      </c>
-      <c r="D19" s="52">
-        <v>4</v>
-      </c>
-      <c r="E19" s="52">
-        <f>C19*D19</f>
-        <v>44</v>
-      </c>
-      <c r="F19" s="52">
-        <v>22</v>
-      </c>
-      <c r="G19" s="52">
-        <v>11</v>
-      </c>
-      <c r="H19" s="52">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="75">
-      <c r="A20" s="30">
-        <v>3.2</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="52">
-        <v>3</v>
-      </c>
-      <c r="D20" s="52">
-        <v>1</v>
-      </c>
-      <c r="E20" s="52">
-        <f>C20*D20</f>
-        <v>3</v>
-      </c>
-      <c r="F20" s="52">
-        <v>1</v>
-      </c>
-      <c r="G20" s="52">
-        <v>2</v>
-      </c>
-      <c r="H20" s="52">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="52">
-        <v>4</v>
-      </c>
-      <c r="D21" s="52">
-        <v>1</v>
-      </c>
-      <c r="E21" s="52">
-        <f>C21*D21</f>
-        <v>4</v>
-      </c>
-      <c r="F21" s="52">
-        <v>2</v>
-      </c>
-      <c r="G21" s="52">
-        <v>1</v>
-      </c>
-      <c r="H21" s="52">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="30">
-        <v>3.4</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="52">
-        <v>3</v>
-      </c>
-      <c r="D22" s="52">
-        <v>1</v>
-      </c>
-      <c r="E22" s="52">
-        <f>C22*D22</f>
-        <v>3</v>
-      </c>
-      <c r="F22" s="52">
-        <v>2</v>
-      </c>
-      <c r="G22" s="52">
-        <v>1</v>
-      </c>
-      <c r="H22" s="52">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="52">
-        <v>2</v>
-      </c>
-      <c r="D23" s="52">
-        <v>1</v>
-      </c>
-      <c r="E23" s="52">
-        <f>C23*D23</f>
-        <v>2</v>
-      </c>
-      <c r="F23" s="52">
-        <v>2</v>
-      </c>
-      <c r="G23" s="52">
-        <v>0</v>
-      </c>
-      <c r="H23" s="52">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>